--- a/SYEI_stamping_press_system/平板.xlsx
+++ b/SYEI_stamping_press_system/平板.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\PycharmProjects\stamping_press\SYEI_stamping_press_system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2821D0D9-CF3A-405B-97DD-AA1BA60BCA84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF731957-FCA8-498F-9986-395F8A1C6410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28905" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="平板" sheetId="10" r:id="rId1"/>
-    <sheet name="T 形槽" sheetId="13" r:id="rId2"/>
-    <sheet name="平板尺寸" sheetId="12" r:id="rId3"/>
+    <sheet name="機架喉部位置" sheetId="13" r:id="rId2"/>
+    <sheet name="下料孔界線" sheetId="14" r:id="rId3"/>
+    <sheet name="平板尺寸" sheetId="12" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="57">
   <si>
     <t>A</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -239,6 +240,30 @@
   </si>
   <si>
     <t>LV2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -246,7 +271,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,6 +321,12 @@
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -361,7 +392,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -383,6 +414,15 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -666,8 +706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D243EF3-4A90-4677-A107-F155DDBC28FE}">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V51" sqref="V51"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
@@ -2058,20 +2098,298 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33B8C35C-8E3B-443E-BB1E-222BC32009E5}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="16384" width="8.9375" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="16.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2">
+        <v>35</v>
+      </c>
+      <c r="D1" s="2">
+        <v>45</v>
+      </c>
+      <c r="E1" s="2">
+        <v>60</v>
+      </c>
+      <c r="F1" s="2">
+        <v>80</v>
+      </c>
+      <c r="G1" s="2">
+        <v>110</v>
+      </c>
+      <c r="H1" s="2">
+        <v>160</v>
+      </c>
+      <c r="I1" s="2">
+        <v>200</v>
+      </c>
+      <c r="J1" s="2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="10">
+        <v>19</v>
+      </c>
+      <c r="C2" s="10">
+        <v>22</v>
+      </c>
+      <c r="D2" s="10">
+        <v>25</v>
+      </c>
+      <c r="E2" s="10">
+        <v>28</v>
+      </c>
+      <c r="F2" s="10">
+        <v>45</v>
+      </c>
+      <c r="G2" s="10">
+        <v>50</v>
+      </c>
+      <c r="H2" s="10">
+        <v>55</v>
+      </c>
+      <c r="I2" s="10">
+        <v>60</v>
+      </c>
+      <c r="J2" s="10">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="10">
+        <v>50</v>
+      </c>
+      <c r="C3" s="10">
+        <v>50</v>
+      </c>
+      <c r="D3" s="10">
+        <v>55</v>
+      </c>
+      <c r="E3" s="10">
+        <v>60</v>
+      </c>
+      <c r="F3" s="10">
+        <v>65</v>
+      </c>
+      <c r="G3" s="10">
+        <v>90</v>
+      </c>
+      <c r="H3" s="10">
+        <v>105</v>
+      </c>
+      <c r="I3" s="10">
+        <v>105</v>
+      </c>
+      <c r="J3" s="10">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="9">
+        <v>388</v>
+      </c>
+      <c r="C4" s="9">
+        <v>486</v>
+      </c>
+      <c r="D4" s="9">
+        <v>516</v>
+      </c>
+      <c r="E4" s="9">
+        <v>544</v>
+      </c>
+      <c r="F4" s="9">
+        <v>614</v>
+      </c>
+      <c r="G4" s="9">
+        <v>670</v>
+      </c>
+      <c r="H4" s="9">
+        <v>730</v>
+      </c>
+      <c r="I4" s="9">
+        <v>900</v>
+      </c>
+      <c r="J4" s="9">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="9">
+        <v>526</v>
+      </c>
+      <c r="C5" s="9">
+        <v>630</v>
+      </c>
+      <c r="D5" s="9">
+        <v>676</v>
+      </c>
+      <c r="E5" s="9">
+        <v>720</v>
+      </c>
+      <c r="F5" s="9">
+        <v>834</v>
+      </c>
+      <c r="G5" s="9">
+        <v>950</v>
+      </c>
+      <c r="H5" s="9">
+        <v>1050</v>
+      </c>
+      <c r="I5" s="9">
+        <v>1230</v>
+      </c>
+      <c r="J5" s="9">
+        <v>1310</v>
+      </c>
+    </row>
+  </sheetData>
+  <protectedRanges>
+    <protectedRange sqref="B1:J1" name="範圍1_2"/>
+  </protectedRanges>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E88351FF-0E0C-4445-B01B-E43B718BACF2}">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:10" s="8" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2">
+        <v>35</v>
+      </c>
+      <c r="D1" s="2">
+        <v>45</v>
+      </c>
+      <c r="E1" s="2">
+        <v>60</v>
+      </c>
+      <c r="F1" s="2">
+        <v>80</v>
+      </c>
+      <c r="G1" s="2">
+        <v>110</v>
+      </c>
+      <c r="H1" s="2">
+        <v>160</v>
+      </c>
+      <c r="I1" s="2">
+        <v>200</v>
+      </c>
+      <c r="J1" s="2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="10">
+        <v>464</v>
+      </c>
+      <c r="C2" s="10">
+        <v>562</v>
+      </c>
+      <c r="D2" s="10">
+        <v>594</v>
+      </c>
+      <c r="E2" s="10">
+        <v>608</v>
+      </c>
+      <c r="F2" s="10">
+        <v>614</v>
+      </c>
+      <c r="G2" s="10">
+        <v>500</v>
+      </c>
+      <c r="H2" s="10">
+        <v>560</v>
+      </c>
+      <c r="I2" s="10">
+        <v>670</v>
+      </c>
+      <c r="J2" s="10">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="10">
+        <v>236</v>
+      </c>
+      <c r="C3" s="10">
+        <v>240</v>
+      </c>
+      <c r="D3" s="10">
+        <v>274</v>
+      </c>
+      <c r="E3" s="10">
+        <v>274</v>
+      </c>
+      <c r="F3" s="10">
+        <v>350</v>
+      </c>
+      <c r="G3" s="10">
+        <v>420</v>
+      </c>
+      <c r="H3" s="10">
+        <v>450</v>
+      </c>
+      <c r="I3" s="10">
+        <v>488</v>
+      </c>
+      <c r="J3" s="10">
+        <v>600</v>
+      </c>
+    </row>
+  </sheetData>
+  <protectedRanges>
+    <protectedRange sqref="B1:J1" name="範圍1_2"/>
+  </protectedRanges>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A096DBC1-F09C-43DE-8547-5C9FC9C9C7C0}">
   <dimension ref="A1:J4"/>
   <sheetViews>
